--- a/Excel_Read_Write/bin/TEST_SUITE/SAUCE_LOGIN.xlsx
+++ b/Excel_Read_Write/bin/TEST_SUITE/SAUCE_LOGIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JANBASK\NOV WEEKDAY BATCH\Excel_Read_Write\src\TEST_SUITE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E804B-3852-4923-A485-A9BAF88FCE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706018F7-EA4C-4DEF-A75D-3260379E57EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
